--- a/docs/shr-core-MedicationExposure.xlsx
+++ b/docs/shr-core-MedicationExposure.xlsx
@@ -509,17 +509,14 @@
     <t>The proposal, order, or plan that is partly or wholly fulfilled by the performance of this act.</t>
   </si>
   <si>
-    <t>medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-extension]]} {[]}
+    <t>medicationcodeorreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationCodeOrReference-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.
-In FHIR DSTU2 and STU3, Medication lacks the identifer attribute, which is included in SHR as an extension.
-DSTU2 lacks the status attribute, which is required by US-Core.
-Batch is 0..1 in FHIR R4, and accordingly is restricted here.</t>
+    <t>A choice of a medication code or reference.</t>
   </si>
   <si>
     <t>dosage</t>
@@ -697,7 +694,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="33.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.02734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
